--- a/mos2023/tai-khoan-gmetrix-mt6.xlsx
+++ b/mos2023/tai-khoan-gmetrix-mt6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\learn\mos2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9241E837-9B6D-4B3A-89EE-2AD0097B9897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{523E5DEF-AA20-4F21-BCC5-23375581BD31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14880" xr2:uid="{783D5CA9-3723-4EA2-8D36-6F54054E43FE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{783D5CA9-3723-4EA2-8D36-6F54054E43FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,14 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -639,10 +631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D370C2A-809B-4FB5-8957-802B5AB14C00}">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,7 +662,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -681,13 +673,13 @@
         <v>6</v>
       </c>
       <c r="D2" s="2">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -698,13 +690,13 @@
         <v>9</v>
       </c>
       <c r="D3" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -715,13 +707,13 @@
         <v>11</v>
       </c>
       <c r="D4" s="2">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -732,13 +724,13 @@
         <v>13</v>
       </c>
       <c r="D5" s="2">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -749,13 +741,13 @@
         <v>15</v>
       </c>
       <c r="D6" s="2">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -766,13 +758,13 @@
         <v>17</v>
       </c>
       <c r="D7" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -789,7 +781,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -800,13 +792,13 @@
         <v>21</v>
       </c>
       <c r="D9" s="2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -817,13 +809,13 @@
         <v>23</v>
       </c>
       <c r="D10" s="2">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -834,13 +826,13 @@
         <v>25</v>
       </c>
       <c r="D11" s="2">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -851,13 +843,13 @@
         <v>27</v>
       </c>
       <c r="D12" s="2">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -868,13 +860,13 @@
         <v>29</v>
       </c>
       <c r="D13" s="2">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -885,13 +877,13 @@
         <v>31</v>
       </c>
       <c r="D14" s="2">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -902,13 +894,13 @@
         <v>33</v>
       </c>
       <c r="D15" s="2">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -925,7 +917,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -936,13 +928,13 @@
         <v>37</v>
       </c>
       <c r="D17" s="2">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -953,13 +945,13 @@
         <v>39</v>
       </c>
       <c r="D18" s="2">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -975,8 +967,11 @@
       <c r="E19" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -987,13 +982,13 @@
         <v>43</v>
       </c>
       <c r="D20" s="2">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1004,13 +999,13 @@
         <v>45</v>
       </c>
       <c r="D21" s="2">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1021,13 +1016,13 @@
         <v>47</v>
       </c>
       <c r="D22" s="2">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -1038,13 +1033,13 @@
         <v>49</v>
       </c>
       <c r="D23" s="2">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1055,13 +1050,13 @@
         <v>51</v>
       </c>
       <c r="D24" s="2">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1072,13 +1067,13 @@
         <v>53</v>
       </c>
       <c r="D25" s="2">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -1089,13 +1084,13 @@
         <v>55</v>
       </c>
       <c r="D26" s="2">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -1106,13 +1101,13 @@
         <v>57</v>
       </c>
       <c r="D27" s="2">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -1123,13 +1118,13 @@
         <v>59</v>
       </c>
       <c r="D28" s="2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -1140,13 +1135,13 @@
         <v>61</v>
       </c>
       <c r="D29" s="2">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -1157,13 +1152,13 @@
         <v>63</v>
       </c>
       <c r="D30" s="2">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -1174,13 +1169,13 @@
         <v>65</v>
       </c>
       <c r="D31" s="2">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -1191,13 +1186,13 @@
         <v>67</v>
       </c>
       <c r="D32" s="2">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -1208,13 +1203,13 @@
         <v>69</v>
       </c>
       <c r="D33" s="2">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>33</v>
       </c>
